--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Crlf1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3448526666666667</v>
+        <v>0.1153933333333333</v>
       </c>
       <c r="H2">
-        <v>1.034558</v>
+        <v>0.34618</v>
       </c>
       <c r="I2">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="J2">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05473433333333333</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N2">
-        <v>0.164203</v>
+        <v>0.028678</v>
       </c>
       <c r="O2">
-        <v>0.005873455178951466</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="P2">
-        <v>0.005873455178951466</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="Q2">
-        <v>0.01887528080822222</v>
+        <v>0.001103083337777778</v>
       </c>
       <c r="R2">
-        <v>0.169877527274</v>
+        <v>0.009927750039999999</v>
       </c>
       <c r="S2">
-        <v>0.00014764226553671</v>
+        <v>7.960134943233498E-06</v>
       </c>
       <c r="T2">
-        <v>0.00014764226553671</v>
+        <v>7.960134943233498E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3448526666666667</v>
+        <v>0.1153933333333333</v>
       </c>
       <c r="H3">
-        <v>1.034558</v>
+        <v>0.34618</v>
       </c>
       <c r="I3">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="J3">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>25.503206</v>
       </c>
       <c r="O3">
-        <v>0.912236301167251</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="P3">
-        <v>0.912236301167251</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="Q3">
-        <v>2.931616199216445</v>
+        <v>0.9809666503422222</v>
       </c>
       <c r="R3">
-        <v>26.384545792948</v>
+        <v>8.82869985308</v>
       </c>
       <c r="S3">
-        <v>0.02293107380674783</v>
+        <v>0.007078909311844696</v>
       </c>
       <c r="T3">
-        <v>0.02293107380674783</v>
+        <v>0.007078909311844697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3448526666666667</v>
+        <v>0.1153933333333333</v>
       </c>
       <c r="H4">
-        <v>1.034558</v>
+        <v>0.34618</v>
       </c>
       <c r="I4">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="J4">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,60 +679,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7631296666666666</v>
+        <v>0.1915436666666667</v>
       </c>
       <c r="N4">
-        <v>2.289389</v>
+        <v>0.574631</v>
       </c>
       <c r="O4">
-        <v>0.08189024365379753</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="P4">
-        <v>0.08189024365379755</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="Q4">
-        <v>0.2631673005624444</v>
+        <v>0.02210286217555556</v>
       </c>
       <c r="R4">
-        <v>2.368505705062</v>
+        <v>0.19892575958</v>
       </c>
       <c r="S4">
-        <v>0.002058492102183412</v>
+        <v>0.000159499975680494</v>
       </c>
       <c r="T4">
-        <v>0.002058492102183413</v>
+        <v>0.0001594999756804941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>8.096090333333334</v>
+        <v>0.1153933333333333</v>
       </c>
       <c r="H5">
-        <v>24.288271</v>
+        <v>0.34618</v>
       </c>
       <c r="I5">
-        <v>0.5901450902944959</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="J5">
-        <v>0.5901450902944958</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05473433333333333</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N5">
-        <v>0.164203</v>
+        <v>0.173483</v>
       </c>
       <c r="O5">
-        <v>0.005873455178951466</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="P5">
-        <v>0.005873455178951466</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="Q5">
-        <v>0.4431341070014445</v>
+        <v>0.006672927215555556</v>
       </c>
       <c r="R5">
-        <v>3.988206963013</v>
+        <v>0.06005634494</v>
       </c>
       <c r="S5">
-        <v>0.003466190736922988</v>
+        <v>4.815357034510694E-05</v>
       </c>
       <c r="T5">
-        <v>0.003466190736922987</v>
+        <v>4.815357034510694E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,40 +791,40 @@
         <v>24.288271</v>
       </c>
       <c r="I6">
-        <v>0.5901450902944959</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="J6">
-        <v>0.5901450902944958</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.501068666666667</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N6">
-        <v>25.503206</v>
+        <v>0.028678</v>
       </c>
       <c r="O6">
-        <v>0.912236301167251</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="P6">
-        <v>0.912236301167251</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="Q6">
-        <v>68.8254198552029</v>
+        <v>0.07739322619311112</v>
       </c>
       <c r="R6">
-        <v>619.428778696826</v>
+        <v>0.696539035738</v>
       </c>
       <c r="S6">
-        <v>0.5383517743222643</v>
+        <v>0.0005584895565827743</v>
       </c>
       <c r="T6">
-        <v>0.5383517743222642</v>
+        <v>0.0005584895565827743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>24.288271</v>
       </c>
       <c r="I7">
-        <v>0.5901450902944959</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="J7">
-        <v>0.5901450902944958</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,43 +865,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7631296666666666</v>
+        <v>8.501068666666667</v>
       </c>
       <c r="N7">
-        <v>2.289389</v>
+        <v>25.503206</v>
       </c>
       <c r="O7">
-        <v>0.08189024365379753</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="P7">
-        <v>0.08189024365379755</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="Q7">
-        <v>6.178366717379889</v>
+        <v>68.8254198552029</v>
       </c>
       <c r="R7">
-        <v>55.605300456419</v>
+        <v>619.428778696826</v>
       </c>
       <c r="S7">
-        <v>0.04832712523530862</v>
+        <v>0.4966620479245119</v>
       </c>
       <c r="T7">
-        <v>0.04832712523530861</v>
+        <v>0.4966620479245119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -906,61 +909,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.277870333333333</v>
+        <v>8.096090333333334</v>
       </c>
       <c r="H8">
-        <v>15.833611</v>
+        <v>24.288271</v>
       </c>
       <c r="I8">
-        <v>0.3847177015310362</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="J8">
-        <v>0.3847177015310361</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.05473433333333333</v>
+        <v>0.1915436666666667</v>
       </c>
       <c r="N8">
-        <v>0.164203</v>
+        <v>0.574631</v>
       </c>
       <c r="O8">
-        <v>0.005873455178951466</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="P8">
-        <v>0.005873455178951466</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="Q8">
-        <v>0.2888807141147777</v>
+        <v>1.550754828111222</v>
       </c>
       <c r="R8">
-        <v>2.599926427033</v>
+        <v>13.956793453001</v>
       </c>
       <c r="S8">
-        <v>0.002259622176491769</v>
+        <v>0.01119064831538867</v>
       </c>
       <c r="T8">
-        <v>0.002259622176491768</v>
+        <v>0.01119064831538867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.277870333333333</v>
+        <v>8.096090333333334</v>
       </c>
       <c r="H9">
-        <v>15.833611</v>
+        <v>24.288271</v>
       </c>
       <c r="I9">
-        <v>0.3847177015310362</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="J9">
-        <v>0.3847177015310361</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.501068666666667</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N9">
-        <v>25.503206</v>
+        <v>0.173483</v>
       </c>
       <c r="O9">
-        <v>0.912236301167251</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="P9">
-        <v>0.912236301167251</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="Q9">
-        <v>44.86753811742955</v>
+        <v>0.4681780130992223</v>
       </c>
       <c r="R9">
-        <v>403.8078430568659</v>
+        <v>4.213602117893</v>
       </c>
       <c r="S9">
-        <v>0.3509534530382389</v>
+        <v>0.003378493749377552</v>
       </c>
       <c r="T9">
-        <v>0.3509534530382388</v>
+        <v>0.003378493749377552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.447211</v>
+      </c>
+      <c r="H10">
+        <v>22.341633</v>
+      </c>
+      <c r="I10">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="J10">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.028678</v>
+      </c>
+      <c r="O10">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="P10">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="Q10">
+        <v>0.07119037235266666</v>
+      </c>
+      <c r="R10">
+        <v>0.640713351174</v>
+      </c>
+      <c r="S10">
+        <v>0.000513728157410014</v>
+      </c>
+      <c r="T10">
+        <v>0.000513728157410014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.447211</v>
+      </c>
+      <c r="H11">
+        <v>22.341633</v>
+      </c>
+      <c r="I11">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="J11">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N11">
+        <v>25.503206</v>
+      </c>
+      <c r="O11">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="P11">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="Q11">
+        <v>63.30925208615534</v>
+      </c>
+      <c r="R11">
+        <v>569.783268775398</v>
+      </c>
+      <c r="S11">
+        <v>0.4568559532194719</v>
+      </c>
+      <c r="T11">
+        <v>0.4568559532194719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.447211</v>
+      </c>
+      <c r="H12">
+        <v>22.341633</v>
+      </c>
+      <c r="I12">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="J12">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1915436666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.574631</v>
+      </c>
+      <c r="O12">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="P12">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="Q12">
+        <v>1.426466101380333</v>
+      </c>
+      <c r="R12">
+        <v>12.838194912423</v>
+      </c>
+      <c r="S12">
+        <v>0.01029374868612434</v>
+      </c>
+      <c r="T12">
+        <v>0.01029374868612434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.447211</v>
+      </c>
+      <c r="H13">
+        <v>22.341633</v>
+      </c>
+      <c r="I13">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="J13">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.173483</v>
+      </c>
+      <c r="O13">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="P13">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="Q13">
+        <v>0.4306548353043333</v>
+      </c>
+      <c r="R13">
+        <v>3.875893517739</v>
+      </c>
+      <c r="S13">
+        <v>0.003107716784014278</v>
+      </c>
+      <c r="T13">
+        <v>0.003107716784014278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.16048</v>
+      </c>
+      <c r="H14">
+        <v>0.48144</v>
+      </c>
+      <c r="I14">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="J14">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.028678</v>
+      </c>
+      <c r="O14">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="P14">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="Q14">
+        <v>0.001534081813333333</v>
+      </c>
+      <c r="R14">
+        <v>0.01380673632</v>
+      </c>
+      <c r="S14">
+        <v>1.10703315242658E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.10703315242658E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.16048</v>
+      </c>
+      <c r="H15">
+        <v>0.48144</v>
+      </c>
+      <c r="I15">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="J15">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N15">
+        <v>25.503206</v>
+      </c>
+      <c r="O15">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="P15">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="Q15">
+        <v>1.364251499626667</v>
+      </c>
+      <c r="R15">
+        <v>12.27826349664</v>
+      </c>
+      <c r="S15">
+        <v>0.009844792013098708</v>
+      </c>
+      <c r="T15">
+        <v>0.009844792013098709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.277870333333333</v>
-      </c>
-      <c r="H10">
-        <v>15.833611</v>
-      </c>
-      <c r="I10">
-        <v>0.3847177015310362</v>
-      </c>
-      <c r="J10">
-        <v>0.3847177015310361</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.7631296666666666</v>
-      </c>
-      <c r="N10">
-        <v>2.289389</v>
-      </c>
-      <c r="O10">
-        <v>0.08189024365379753</v>
-      </c>
-      <c r="P10">
-        <v>0.08189024365379755</v>
-      </c>
-      <c r="Q10">
-        <v>4.027699428186555</v>
-      </c>
-      <c r="R10">
-        <v>36.24929485367899</v>
-      </c>
-      <c r="S10">
-        <v>0.03150462631630551</v>
-      </c>
-      <c r="T10">
-        <v>0.03150462631630551</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.16048</v>
+      </c>
+      <c r="H16">
+        <v>0.48144</v>
+      </c>
+      <c r="I16">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="J16">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1915436666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.574631</v>
+      </c>
+      <c r="O16">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="P16">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="Q16">
+        <v>0.03073892762666666</v>
+      </c>
+      <c r="R16">
+        <v>0.27665034864</v>
+      </c>
+      <c r="S16">
+        <v>0.0002218200597712665</v>
+      </c>
+      <c r="T16">
+        <v>0.0002218200597712666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.16048</v>
+      </c>
+      <c r="H17">
+        <v>0.48144</v>
+      </c>
+      <c r="I17">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="J17">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.173483</v>
+      </c>
+      <c r="O17">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="P17">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="Q17">
+        <v>0.009280183946666666</v>
+      </c>
+      <c r="R17">
+        <v>0.08352165552</v>
+      </c>
+      <c r="S17">
+        <v>6.696820991087956E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.696820991087957E-05</v>
       </c>
     </row>
   </sheetData>
